--- a/Color Matching.xlsx
+++ b/Color Matching.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmcmahon1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsom/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3114DA8-A8D4-FE45-9D8A-5806520A16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89F87D-EE3C-A349-A8E1-BB63D448F6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{B762882F-A21E-DF46-A156-82AFD420351A}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16500" xr2:uid="{B762882F-A21E-DF46-A156-82AFD420351A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{FDF9A38C-0097-4848-9CAC-9A74D7B445EE}" name="Color Remapping" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jmcmahon1/Documents/GitHub/machination/Color Remapping.txt" tab="0" delimiter="-">
+    <textPr sourceFile="/Users/jmcmahon1/Documents/GitHub/machination/Color Remapping.txt" tab="0" delimiter="-">
       <textFields count="2">
         <textField/>
         <textField type="text"/>
@@ -48,7 +48,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{F1556C4E-07EC-EF46-AC75-941E71F64584}" name="Untitled 2" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jmcmahon1/Downloads/Untitled 2.txt" tab="0">
+    <textPr sourceFile="/Users/jmcmahon1/Downloads/Untitled 2.txt" tab="0">
       <textFields>
         <textField/>
       </textFields>
@@ -391,12 +391,174 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF94A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92A7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD86CE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE553A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF66C03"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19E9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10A4EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007DC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF886CE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB677C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF39D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9C1E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDBBE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAE98E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6928B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8393CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA595B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF9FBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC7196"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0A9C8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF236384"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A2F96"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F52A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF624BAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA34BAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC2E6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -411,15 +573,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC2E6E"/>
+      <color rgb="FFA34BAD"/>
+      <color rgb="FF624BAD"/>
+      <color rgb="FF2F52A2"/>
+      <color rgb="FF1A2F96"/>
+      <color rgb="FF236384"/>
+      <color rgb="FF0A9C8E"/>
+      <color rgb="FFBC7196"/>
+      <color rgb="FFBF9FBE"/>
+      <color rgb="FFA595B5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -432,11 +635,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Untitled 2" connectionId="2" xr16:uid="{CD1DF5F3-F75E-F743-BC0D-D8702E023B6A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Color Remapping" connectionId="1" xr16:uid="{FB027B11-911C-8F41-ACAE-585BF6F7912C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Color Remapping" connectionId="1" xr16:uid="{FB027B11-911C-8F41-ACAE-585BF6F7912C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Untitled 2" connectionId="2" xr16:uid="{CD1DF5F3-F75E-F743-BC0D-D8702E023B6A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64E4FC7-9FA3-4F45-9555-33E79F642084}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:D69"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +952,7 @@
     <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -762,8 +965,9 @@
       <c r="D1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -774,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -785,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -796,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -807,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -818,7 +1022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -829,7 +1033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -840,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -851,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -862,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -875,8 +1079,9 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -889,8 +1094,9 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -903,8 +1109,9 @@
       <c r="D13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -915,7 +1122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -926,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -939,8 +1146,9 @@
       <c r="D16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -951,7 +1159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -962,7 +1170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -973,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -984,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -997,8 +1205,9 @@
       <c r="D21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1011,8 +1220,9 @@
       <c r="D22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1025,8 +1235,9 @@
       <c r="D23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1039,8 +1250,9 @@
       <c r="D24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1053,8 +1265,9 @@
       <c r="D25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1067,8 +1280,9 @@
       <c r="D26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1081,8 +1295,9 @@
       <c r="D27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1093,7 +1308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1104,7 +1319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1115,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1126,7 +1341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1137,7 +1352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1148,7 +1363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1159,7 +1374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1170,7 +1385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1181,7 +1396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1192,7 +1407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1205,8 +1420,9 @@
       <c r="D38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1219,8 +1435,9 @@
       <c r="D39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1233,8 +1450,9 @@
       <c r="D40" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1245,7 +1463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1256,7 +1474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1269,8 +1487,9 @@
       <c r="D43" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1281,7 +1500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1292,7 +1511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1303,7 +1522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1314,7 +1533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1325,7 +1544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1336,7 +1555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1347,7 +1566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1358,7 +1577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1371,8 +1590,9 @@
       <c r="D52" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1385,8 +1605,9 @@
       <c r="D53" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1399,8 +1620,9 @@
       <c r="D54" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1413,8 +1635,9 @@
       <c r="D55" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1425,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1436,7 +1659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1447,7 +1670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1458,7 +1681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1469,7 +1692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1480,7 +1703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1491,7 +1714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1504,8 +1727,9 @@
       <c r="D63" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1518,8 +1742,9 @@
       <c r="D64" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="23"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1532,8 +1757,9 @@
       <c r="D65" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="24"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1546,8 +1772,9 @@
       <c r="D66" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1560,8 +1787,9 @@
       <c r="D67" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1574,8 +1802,9 @@
       <c r="D68" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1588,8 +1817,9 @@
       <c r="D69" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
